--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.7419516536564</v>
+        <v>21.510992</v>
       </c>
       <c r="H2">
-        <v>20.7419516536564</v>
+        <v>64.53297600000001</v>
       </c>
       <c r="I2">
-        <v>0.3924728026324907</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="J2">
-        <v>0.3924728026324907</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.664334942550998</v>
+        <v>0.8164263333333333</v>
       </c>
       <c r="N2">
-        <v>0.664334942550998</v>
+        <v>2.449279</v>
       </c>
       <c r="O2">
-        <v>0.04986844265159926</v>
+        <v>0.05945196387955778</v>
       </c>
       <c r="P2">
-        <v>0.04986844265159926</v>
+        <v>0.05945196387955777</v>
       </c>
       <c r="Q2">
-        <v>13.7796032602274</v>
+        <v>17.56214032492267</v>
       </c>
       <c r="R2">
-        <v>13.7796032602274</v>
+        <v>158.059262924304</v>
       </c>
       <c r="S2">
-        <v>0.0195720074503908</v>
+        <v>0.02303217799380982</v>
       </c>
       <c r="T2">
-        <v>0.0195720074503908</v>
+        <v>0.02303217799380981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.7419516536564</v>
+        <v>21.510992</v>
       </c>
       <c r="H3">
-        <v>20.7419516536564</v>
+        <v>64.53297600000001</v>
       </c>
       <c r="I3">
-        <v>0.3924728026324907</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="J3">
-        <v>0.3924728026324907</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3169284654761</v>
+        <v>10.32138733333333</v>
       </c>
       <c r="N3">
-        <v>10.3169284654761</v>
+        <v>30.964162</v>
       </c>
       <c r="O3">
-        <v>0.7744424123554992</v>
+        <v>0.7516008755167443</v>
       </c>
       <c r="P3">
-        <v>0.7744424123554992</v>
+        <v>0.7516008755167441</v>
       </c>
       <c r="Q3">
-        <v>213.9932314451368</v>
+        <v>222.0232803562347</v>
       </c>
       <c r="R3">
-        <v>213.9932314451368</v>
+        <v>1998.209523206112</v>
       </c>
       <c r="S3">
-        <v>0.3039475840546298</v>
+        <v>0.291176338266552</v>
       </c>
       <c r="T3">
-        <v>0.3039475840546298</v>
+        <v>0.291176338266552</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.7419516536564</v>
+        <v>21.510992</v>
       </c>
       <c r="H4">
-        <v>20.7419516536564</v>
+        <v>64.53297600000001</v>
       </c>
       <c r="I4">
-        <v>0.3924728026324907</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="J4">
-        <v>0.3924728026324907</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.34048692599287</v>
+        <v>0.037004</v>
       </c>
       <c r="N4">
-        <v>2.34048692599287</v>
+        <v>0.111012</v>
       </c>
       <c r="O4">
-        <v>0.1756891449929016</v>
+        <v>0.002694622137452478</v>
       </c>
       <c r="P4">
-        <v>0.1756891449929016</v>
+        <v>0.002694622137452478</v>
       </c>
       <c r="Q4">
-        <v>48.54626666495899</v>
+        <v>0.7959927479680001</v>
       </c>
       <c r="R4">
-        <v>48.54626666495899</v>
+        <v>7.163934731712001</v>
       </c>
       <c r="S4">
-        <v>0.06895321112747012</v>
+        <v>0.00104391869748151</v>
       </c>
       <c r="T4">
-        <v>0.06895321112747012</v>
+        <v>0.00104391869748151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.2584718309115</v>
+        <v>21.510992</v>
       </c>
       <c r="H5">
-        <v>15.2584718309115</v>
+        <v>64.53297600000001</v>
       </c>
       <c r="I5">
-        <v>0.2887160911066479</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="J5">
-        <v>0.2887160911066479</v>
+        <v>0.3874081946303762</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.664334942550998</v>
+        <v>2.55772</v>
       </c>
       <c r="N5">
-        <v>0.664334942550998</v>
+        <v>7.67316</v>
       </c>
       <c r="O5">
-        <v>0.04986844265159926</v>
+        <v>0.1862525384662456</v>
       </c>
       <c r="P5">
-        <v>0.04986844265159926</v>
+        <v>0.1862525384662456</v>
       </c>
       <c r="Q5">
-        <v>10.13673600720461</v>
+        <v>55.01909445824001</v>
       </c>
       <c r="R5">
-        <v>10.13673600720461</v>
+        <v>495.1718501241601</v>
       </c>
       <c r="S5">
-        <v>0.01439782183194578</v>
+        <v>0.07215575967253293</v>
       </c>
       <c r="T5">
-        <v>0.01439782183194578</v>
+        <v>0.0721557596725329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.2584718309115</v>
+        <v>15.69618166666667</v>
       </c>
       <c r="H6">
-        <v>15.2584718309115</v>
+        <v>47.088545</v>
       </c>
       <c r="I6">
-        <v>0.2887160911066479</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="J6">
-        <v>0.2887160911066479</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3169284654761</v>
+        <v>0.8164263333333333</v>
       </c>
       <c r="N6">
-        <v>10.3169284654761</v>
+        <v>2.449279</v>
       </c>
       <c r="O6">
-        <v>0.7744424123554992</v>
+        <v>0.05945196387955778</v>
       </c>
       <c r="P6">
-        <v>0.7744424123554992</v>
+        <v>0.05945196387955777</v>
       </c>
       <c r="Q6">
-        <v>157.4205623719961</v>
+        <v>12.81477604545055</v>
       </c>
       <c r="R6">
-        <v>157.4205623719961</v>
+        <v>115.332984409055</v>
       </c>
       <c r="S6">
-        <v>0.2235939860824825</v>
+        <v>0.01680616356371854</v>
       </c>
       <c r="T6">
-        <v>0.2235939860824825</v>
+        <v>0.01680616356371854</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.2584718309115</v>
+        <v>15.69618166666667</v>
       </c>
       <c r="H7">
-        <v>15.2584718309115</v>
+        <v>47.088545</v>
       </c>
       <c r="I7">
-        <v>0.2887160911066479</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="J7">
-        <v>0.2887160911066479</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.34048692599287</v>
+        <v>10.32138733333333</v>
       </c>
       <c r="N7">
-        <v>2.34048692599287</v>
+        <v>30.964162</v>
       </c>
       <c r="O7">
-        <v>0.1756891449929016</v>
+        <v>0.7516008755167443</v>
       </c>
       <c r="P7">
-        <v>0.1756891449929016</v>
+        <v>0.7516008755167441</v>
       </c>
       <c r="Q7">
-        <v>35.71225383087885</v>
+        <v>162.0063706360322</v>
       </c>
       <c r="R7">
-        <v>35.71225383087885</v>
+        <v>1458.05733572429</v>
       </c>
       <c r="S7">
-        <v>0.05072428319221967</v>
+        <v>0.2124661058154169</v>
       </c>
       <c r="T7">
-        <v>0.05072428319221967</v>
+        <v>0.2124661058154168</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6050250721188</v>
+        <v>15.69618166666667</v>
       </c>
       <c r="H8">
-        <v>11.6050250721188</v>
+        <v>47.088545</v>
       </c>
       <c r="I8">
-        <v>0.219586699975356</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="J8">
-        <v>0.219586699975356</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.664334942550998</v>
+        <v>0.037004</v>
       </c>
       <c r="N8">
-        <v>0.664334942550998</v>
+        <v>0.111012</v>
       </c>
       <c r="O8">
-        <v>0.04986844265159926</v>
+        <v>0.002694622137452478</v>
       </c>
       <c r="P8">
-        <v>0.04986844265159926</v>
+        <v>0.002694622137452478</v>
       </c>
       <c r="Q8">
-        <v>7.709623664588934</v>
+        <v>0.5808215063933333</v>
       </c>
       <c r="R8">
-        <v>7.709623664588934</v>
+        <v>5.227393557539999</v>
       </c>
       <c r="S8">
-        <v>0.01095044675477497</v>
+        <v>0.0007617285860596213</v>
       </c>
       <c r="T8">
-        <v>0.01095044675477497</v>
+        <v>0.0007617285860596211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6050250721188</v>
+        <v>15.69618166666667</v>
       </c>
       <c r="H9">
-        <v>11.6050250721188</v>
+        <v>47.088545</v>
       </c>
       <c r="I9">
-        <v>0.219586699975356</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="J9">
-        <v>0.219586699975356</v>
+        <v>0.2826847502929545</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.3169284654761</v>
+        <v>2.55772</v>
       </c>
       <c r="N9">
-        <v>10.3169284654761</v>
+        <v>7.67316</v>
       </c>
       <c r="O9">
-        <v>0.7744424123554992</v>
+        <v>0.1862525384662456</v>
       </c>
       <c r="P9">
-        <v>0.7744424123554992</v>
+        <v>0.1862525384662456</v>
       </c>
       <c r="Q9">
-        <v>119.7282135091063</v>
+        <v>40.14643777246667</v>
       </c>
       <c r="R9">
-        <v>119.7282135091063</v>
+        <v>361.3179399522</v>
       </c>
       <c r="S9">
-        <v>0.1700572536500979</v>
+        <v>0.05265075232775956</v>
       </c>
       <c r="T9">
-        <v>0.1700572536500979</v>
+        <v>0.05265075232775954</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6050250721188</v>
+        <v>12.36237333333333</v>
       </c>
       <c r="H10">
-        <v>11.6050250721188</v>
+        <v>37.08712</v>
       </c>
       <c r="I10">
-        <v>0.219586699975356</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="J10">
-        <v>0.219586699975356</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.34048692599287</v>
+        <v>0.8164263333333333</v>
       </c>
       <c r="N10">
-        <v>2.34048692599287</v>
+        <v>2.449279</v>
       </c>
       <c r="O10">
-        <v>0.1756891449929016</v>
+        <v>0.05945196387955778</v>
       </c>
       <c r="P10">
-        <v>0.1756891449929016</v>
+        <v>0.05945196387955777</v>
       </c>
       <c r="Q10">
-        <v>27.16140945711351</v>
+        <v>10.09296713183111</v>
       </c>
       <c r="R10">
-        <v>27.16140945711351</v>
+        <v>90.83670418647999</v>
       </c>
       <c r="S10">
-        <v>0.03857899957048311</v>
+        <v>0.01323659936460677</v>
       </c>
       <c r="T10">
-        <v>0.03857899957048311</v>
+        <v>0.01323659936460677</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.24395021573995</v>
+        <v>12.36237333333333</v>
       </c>
       <c r="H11">
-        <v>5.24395021573995</v>
+        <v>37.08712</v>
       </c>
       <c r="I11">
-        <v>0.09922440628550536</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="J11">
-        <v>0.09922440628550536</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.664334942550998</v>
+        <v>10.32138733333333</v>
       </c>
       <c r="N11">
-        <v>0.664334942550998</v>
+        <v>30.964162</v>
       </c>
       <c r="O11">
-        <v>0.04986844265159926</v>
+        <v>0.7516008755167443</v>
       </c>
       <c r="P11">
-        <v>0.04986844265159926</v>
+        <v>0.7516008755167441</v>
       </c>
       <c r="Q11">
-        <v>3.483739365313893</v>
+        <v>127.5968435326044</v>
       </c>
       <c r="R11">
-        <v>3.483739365313893</v>
+        <v>1148.37159179344</v>
       </c>
       <c r="S11">
-        <v>0.004948166614487709</v>
+        <v>0.1673391259447295</v>
       </c>
       <c r="T11">
-        <v>0.004948166614487709</v>
+        <v>0.1673391259447295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.24395021573995</v>
+        <v>12.36237333333333</v>
       </c>
       <c r="H12">
-        <v>5.24395021573995</v>
+        <v>37.08712</v>
       </c>
       <c r="I12">
-        <v>0.09922440628550536</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="J12">
-        <v>0.09922440628550536</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>10.3169284654761</v>
+        <v>0.037004</v>
       </c>
       <c r="N12">
-        <v>10.3169284654761</v>
+        <v>0.111012</v>
       </c>
       <c r="O12">
-        <v>0.7744424123554992</v>
+        <v>0.002694622137452478</v>
       </c>
       <c r="P12">
-        <v>0.7744424123554992</v>
+        <v>0.002694622137452478</v>
       </c>
       <c r="Q12">
-        <v>54.10145925230702</v>
+        <v>0.4574572628266667</v>
       </c>
       <c r="R12">
-        <v>54.10145925230702</v>
+        <v>4.11711536544</v>
       </c>
       <c r="S12">
-        <v>0.07684358856828892</v>
+        <v>0.000599940377826996</v>
       </c>
       <c r="T12">
-        <v>0.07684358856828892</v>
+        <v>0.0005999403778269959</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.24395021573995</v>
+        <v>12.36237333333333</v>
       </c>
       <c r="H13">
-        <v>5.24395021573995</v>
+        <v>37.08712</v>
       </c>
       <c r="I13">
-        <v>0.09922440628550536</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="J13">
-        <v>0.09922440628550536</v>
+        <v>0.2226436016718045</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.34048692599287</v>
+        <v>2.55772</v>
       </c>
       <c r="N13">
-        <v>2.34048692599287</v>
+        <v>7.67316</v>
       </c>
       <c r="O13">
-        <v>0.1756891449929016</v>
+        <v>0.1862525384662456</v>
       </c>
       <c r="P13">
-        <v>0.1756891449929016</v>
+        <v>0.1862525384662456</v>
       </c>
       <c r="Q13">
-        <v>12.27339692049684</v>
+        <v>31.61948952213333</v>
       </c>
       <c r="R13">
-        <v>12.27339692049684</v>
+        <v>284.5754056992</v>
       </c>
       <c r="S13">
-        <v>0.01743265110272873</v>
+        <v>0.04146793598464123</v>
       </c>
       <c r="T13">
-        <v>0.01743265110272873</v>
+        <v>0.04146793598464122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>5.955845333333333</v>
+      </c>
+      <c r="H14">
+        <v>17.867536</v>
+      </c>
+      <c r="I14">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="J14">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8164263333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.449279</v>
+      </c>
+      <c r="O14">
+        <v>0.05945196387955778</v>
+      </c>
+      <c r="P14">
+        <v>0.05945196387955777</v>
+      </c>
+      <c r="Q14">
+        <v>4.862508967393778</v>
+      </c>
+      <c r="R14">
+        <v>43.762580706544</v>
+      </c>
+      <c r="S14">
+        <v>0.006377022957422647</v>
+      </c>
+      <c r="T14">
+        <v>0.006377022957422646</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.955845333333333</v>
+      </c>
+      <c r="H15">
+        <v>17.867536</v>
+      </c>
+      <c r="I15">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="J15">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.32138733333333</v>
+      </c>
+      <c r="N15">
+        <v>30.964162</v>
+      </c>
+      <c r="O15">
+        <v>0.7516008755167443</v>
+      </c>
+      <c r="P15">
+        <v>0.7516008755167441</v>
+      </c>
+      <c r="Q15">
+        <v>61.47258658275911</v>
+      </c>
+      <c r="R15">
+        <v>553.253279244832</v>
+      </c>
+      <c r="S15">
+        <v>0.08061930549004584</v>
+      </c>
+      <c r="T15">
+        <v>0.08061930549004583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>5.955845333333333</v>
+      </c>
+      <c r="H16">
+        <v>17.867536</v>
+      </c>
+      <c r="I16">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="J16">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.037004</v>
+      </c>
+      <c r="N16">
+        <v>0.111012</v>
+      </c>
+      <c r="O16">
+        <v>0.002694622137452478</v>
+      </c>
+      <c r="P16">
+        <v>0.002694622137452478</v>
+      </c>
+      <c r="Q16">
+        <v>0.2203901007146667</v>
+      </c>
+      <c r="R16">
+        <v>1.983510906432</v>
+      </c>
+      <c r="S16">
+        <v>0.0002890344760843509</v>
+      </c>
+      <c r="T16">
+        <v>0.0002890344760843509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.955845333333333</v>
+      </c>
+      <c r="H17">
+        <v>17.867536</v>
+      </c>
+      <c r="I17">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="J17">
+        <v>0.1072634534048647</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.55772</v>
+      </c>
+      <c r="N17">
+        <v>7.67316</v>
+      </c>
+      <c r="O17">
+        <v>0.1862525384662456</v>
+      </c>
+      <c r="P17">
+        <v>0.1862525384662456</v>
+      </c>
+      <c r="Q17">
+        <v>15.23338472597334</v>
+      </c>
+      <c r="R17">
+        <v>137.10046253376</v>
+      </c>
+      <c r="S17">
+        <v>0.01997809048131192</v>
+      </c>
+      <c r="T17">
+        <v>0.01997809048131191</v>
       </c>
     </row>
   </sheetData>
